--- a/data/trans_orig/Q47-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q47-Clase-trans_orig.xlsx
@@ -681,7 +681,7 @@
         <v>163.0362160719733</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>163.6153123970767</v>
+        <v>163.6153123970768</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>170.0246918471574</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>173.8916812140734</v>
+        <v>173.8715371818181</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>174.5170693309544</v>
+        <v>174.4772004777789</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>174.2046884551079</v>
+        <v>174.2371947093461</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>174.4539591417814</v>
+        <v>174.4721151739354</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>162.3165381189612</v>
+        <v>162.3416882857785</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>162.8674282521489</v>
+        <v>162.8799864003686</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>162.3202605772865</v>
+        <v>162.2659676621842</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>163.1582151407476</v>
+        <v>163.1006515384958</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>169.384595284993</v>
+        <v>169.3920400464332</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>169.6437923667933</v>
+        <v>169.6842998876094</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>168.9286031018171</v>
+        <v>168.96319530593</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>169.1598025745332</v>
+        <v>169.1608086199832</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>175.194673166472</v>
+        <v>175.1728782821146</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>175.9136284499874</v>
+        <v>175.8860964643922</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>175.6945074477953</v>
+        <v>175.727414654388</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>175.5898144957272</v>
+        <v>175.6170760547136</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>163.7112419961794</v>
+        <v>163.713213018741</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>164.4528786543382</v>
+        <v>164.3968556131856</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>163.7929288011102</v>
+        <v>163.8172967419768</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>164.1403964917651</v>
+        <v>164.1070764854283</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>170.6996621898659</v>
+        <v>170.6206480375382</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>171.0337147538981</v>
+        <v>170.9912869311151</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>170.3491770273699</v>
+        <v>170.38177687527</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>170.241764302924</v>
+        <v>170.2458328853772</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>163.5453264816269</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>163.3130805692564</v>
+        <v>163.3130805692565</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>168.628429663001</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>173.9141453250253</v>
+        <v>173.8540529616787</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>174.4757173085603</v>
+        <v>174.4569216032342</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>174.3068937822877</v>
+        <v>174.3280352848467</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>173.9840007065743</v>
+        <v>173.9747463028858</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>162.2306269471702</v>
+        <v>162.2057183911819</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>162.3011498469275</v>
+        <v>162.336730967199</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>162.878704155641</v>
+        <v>162.8158954524902</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>162.6928509088544</v>
+        <v>162.8021710936243</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>167.9697216922546</v>
+        <v>168.0052025197913</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>169.0425930051161</v>
+        <v>169.0355254301403</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>168.6561229501093</v>
+        <v>168.6975421863386</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>168.7538777981092</v>
+        <v>168.8245118851217</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>175.2945505266053</v>
+        <v>175.2381316085534</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>175.8360354496397</v>
+        <v>175.9101944232304</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>175.8903554578063</v>
+        <v>175.8711688812876</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>175.3642985479802</v>
+        <v>175.3308907394918</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>163.4605100301495</v>
+        <v>163.3685339351406</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>163.8633227306039</v>
+        <v>163.8713661849137</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>164.2318471072598</v>
+        <v>164.1717441024267</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>163.8272830796329</v>
+        <v>163.8062205104331</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>169.2390449484439</v>
+        <v>169.2696405979066</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>170.4964007793141</v>
+        <v>170.5370138229748</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>169.9975139278072</v>
+        <v>170.0738435022918</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>169.9226469647271</v>
+        <v>169.8915217151359</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>173.2834090230598</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>172.6496294424497</v>
+        <v>172.6496294424498</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>160.6870465779035</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>172.1084909633727</v>
+        <v>172.0850587924449</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>171.5740471774376</v>
+        <v>171.634003216558</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>172.619291762486</v>
+        <v>172.5510347146032</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>171.9855795937752</v>
+        <v>172.0234044017838</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>159.6846740138656</v>
+        <v>159.6045102028102</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>159.6139532400637</v>
+        <v>159.5585969113843</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>159.6730088166249</v>
+        <v>159.7243956306845</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>161.2389117116802</v>
+        <v>161.2590262102002</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>169.2088155921127</v>
+        <v>169.2659668443051</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>168.2575319405361</v>
+        <v>168.2599779745032</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>169.5703115184523</v>
+        <v>169.5566241195505</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>168.9765829941774</v>
+        <v>169.0079156583772</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>173.4170880331378</v>
+        <v>173.3922866269367</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>172.8230764726582</v>
+        <v>172.8612967684228</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>173.9385274218665</v>
+        <v>173.9020812469962</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>173.4257800960258</v>
+        <v>173.3954804508455</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>161.7783253168874</v>
+        <v>161.73990038063</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>161.310081837037</v>
+        <v>161.2875493411815</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>161.8939559329562</v>
+        <v>161.9207825859522</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>162.8216073446185</v>
+        <v>162.978523188973</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>170.5689772812179</v>
+        <v>170.5965341519657</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>169.4954292931748</v>
+        <v>169.5041210284746</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>171.0148630966438</v>
+        <v>170.9958298029864</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>170.3213668712437</v>
+        <v>170.2613211561065</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>171.6829775916336</v>
+        <v>171.7690049184353</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>171.7493733606407</v>
+        <v>171.7687106846834</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>172.974614986897</v>
+        <v>172.9461202107701</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>172.5351767379009</v>
+        <v>172.5415050513286</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>161.5371781798005</v>
+        <v>161.5144239085237</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>161.0756314823118</v>
+        <v>161.0355489459929</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>161.8263724476267</v>
+        <v>161.833896743598</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>161.9376835318358</v>
+        <v>161.9242501648494</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>168.0163728391867</v>
+        <v>168.0128985685139</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>167.5215862670189</v>
+        <v>167.5899245210505</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>168.3648235499194</v>
+        <v>168.4046922780611</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>167.9633416868383</v>
+        <v>167.98891838109</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>172.4941857737336</v>
+        <v>172.5168542190935</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>172.6647353550086</v>
+        <v>172.6394485083629</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>173.9146392390704</v>
+        <v>173.8945699219627</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>173.4597595237802</v>
+        <v>173.4423115333443</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>162.5265521266877</v>
+        <v>162.4875641409345</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>162.0262932245474</v>
+        <v>162.0101085895975</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>162.7877072598904</v>
+        <v>162.7683895078446</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>162.6620447365024</v>
+        <v>162.667479494995</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>168.763112916562</v>
+        <v>168.7906846476102</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>168.3383166970486</v>
+        <v>168.3952007492484</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>169.2516057477085</v>
+        <v>169.216525809719</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>168.7567306279477</v>
+        <v>168.7543755834889</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>171.0573072854398</v>
+        <v>171.0209768459517</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>170.6713221891588</v>
+        <v>170.7270325314633</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>171.6582421486294</v>
+        <v>171.6840087285019</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>171.9353803976516</v>
+        <v>171.872363782418</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>159.3932566467955</v>
+        <v>159.3523375827627</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>159.3030811092836</v>
+        <v>159.2513857055341</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>159.8348377724847</v>
+        <v>159.8212643004704</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>160.4991980683136</v>
+        <v>160.5218889083579</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>163.8615506855681</v>
+        <v>163.929664727355</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>163.9678451264924</v>
+        <v>163.9904913986714</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>165.3551799680907</v>
+        <v>165.3626437849441</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>165.1821240821397</v>
+        <v>165.2207597850337</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>172.7607477746731</v>
+        <v>172.7574072086977</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>172.1358884187244</v>
+        <v>172.1786247351506</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>172.9068376416727</v>
+        <v>172.8876692324536</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>173.346668188337</v>
+        <v>173.4146010951402</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>160.4873277884719</v>
+        <v>160.4939127681717</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>160.3014377949616</v>
+        <v>160.2902801516133</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>160.8975173915788</v>
+        <v>160.8773489532205</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>161.2491277541978</v>
+        <v>161.2173057818146</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>165.1491061211109</v>
+        <v>165.1121281784613</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>165.0473152354079</v>
+        <v>165.0440765219819</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>166.4096733747177</v>
+        <v>166.3761591216344</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>166.197131542489</v>
+        <v>166.2401312801135</v>
       </c>
     </row>
     <row r="19">
@@ -1349,7 +1349,7 @@
         <v>176.5364300748875</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>176.2731669363134</v>
+        <v>176.2731669363135</v>
       </c>
       <c r="G19" s="5" t="n">
         <v>159.5925312622149</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>175.0869390552621</v>
+        <v>175.1603324249854</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>174.8646627634873</v>
+        <v>174.8765881608267</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>175.5567442204542</v>
+        <v>175.6750487019148</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>175.0344222023905</v>
+        <v>175.0073948347984</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>159.206918918091</v>
+        <v>159.239535259724</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>159.8286062508133</v>
+        <v>159.8535548488319</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>159.9363574866604</v>
+        <v>159.9248028625657</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>161.0829683540638</v>
+        <v>161.0415416915534</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>162.2857615038239</v>
+        <v>162.3005800056165</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>162.8705860582892</v>
+        <v>162.8398000762479</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>163.3152428102346</v>
+        <v>163.2818550655157</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>164.1839561916792</v>
+        <v>164.1473493464461</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>176.7789974773029</v>
+        <v>176.8035228647596</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>176.6186335834887</v>
+        <v>176.4285559851187</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>177.4541853923793</v>
+        <v>177.3802979975937</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>177.5863550526111</v>
+        <v>177.5394032335865</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>159.955572384542</v>
+        <v>159.983113118889</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>160.6303967240417</v>
+        <v>160.6371054107842</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>160.7767721002307</v>
+        <v>160.7969967983971</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>161.9761488235278</v>
+        <v>161.9706949534297</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>163.2847973438535</v>
+        <v>163.255626176808</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>163.8394245038296</v>
+        <v>163.8529528342981</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>164.3735042453377</v>
+        <v>164.3228882004495</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>165.5974990051562</v>
+        <v>165.5660116043634</v>
       </c>
     </row>
     <row r="22">
@@ -1500,7 +1500,7 @@
         <v>162.0790367439054</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>166.9372234327745</v>
+        <v>166.9372234327744</v>
       </c>
       <c r="L22" s="5" t="n">
         <v>167.0126161587023</v>
@@ -1509,7 +1509,7 @@
         <v>167.5626167083723</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>167.7587428938796</v>
+        <v>167.7587428938797</v>
       </c>
     </row>
     <row r="23">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>172.9033807676726</v>
+        <v>172.9133792491835</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>172.8442559757021</v>
+        <v>172.8386410975303</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>173.5602716550235</v>
+        <v>173.5812861752778</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>173.3858506019384</v>
+        <v>173.434523559591</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>160.6611482157018</v>
+        <v>160.647162557952</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>160.7868805088263</v>
+        <v>160.777780501962</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>161.2185879828908</v>
+        <v>161.2037694649178</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>161.8921637746992</v>
+        <v>161.9072173869228</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>166.7019780001998</v>
+        <v>166.7118296970758</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>166.7834037545622</v>
+        <v>166.7744877797193</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>167.3394100940125</v>
+        <v>167.3310416532166</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>167.5510460752401</v>
+        <v>167.5243432596593</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>173.4155874372193</v>
+        <v>173.4532574239214</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>173.3918461589139</v>
+        <v>173.3901364144773</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>174.1232894087047</v>
+        <v>174.1300651813224</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>173.9487219063263</v>
+        <v>173.9570536097555</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>161.1130577906077</v>
+        <v>161.1048989090443</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>161.2547617098161</v>
+        <v>161.2387467841987</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>161.7079330465304</v>
+        <v>161.6727682897631</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>162.2649559105102</v>
+        <v>162.2922450397454</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>167.1797873496889</v>
+        <v>167.1624486960321</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>167.2485758203786</v>
+        <v>167.2585458496839</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>167.8229263966743</v>
+        <v>167.7895891469716</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>168.0005982591296</v>
+        <v>167.9758459402464</v>
       </c>
     </row>
     <row r="25">
